--- a/spark/experiments/results-sql-g2.1.csv/g2.1-1t-no-cache.xlsx
+++ b/spark/experiments/results-sql-g2.1.csv/g2.1-1t-no-cache.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.1.csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c130d1b636f27d/Documents/heterogenous-scaling-in-k8s/spark/experiments/results-sql-g2.1.csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_D1B943E229C02AC12E93DC6D656E129430748923" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5F23FF9F-725C-48F0-8D03-09ECD3D340F4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="part-00000-b8823a90-5962-455f-8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -180,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -692,24 +703,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -725,9 +736,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -739,7 +750,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -930,6 +940,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB51-4AE1-BA94-FC214868F208}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1683,7 +1698,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1963,21 +1984,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2131,7 +2154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2205,7 +2228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2279,7 +2302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2353,7 +2376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2427,7 +2450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2501,7 +2524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2575,7 +2598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2649,7 +2672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2723,7 +2746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2797,7 +2820,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2871,7 +2894,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2945,7 +2968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3019,7 +3042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3093,7 +3116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3167,7 +3190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3241,7 +3264,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3315,7 +3338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3389,7 +3412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3463,7 +3486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3537,7 +3560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3611,7 +3634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3685,7 +3708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3759,7 +3782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3833,7 +3856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3907,7 +3930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3981,7 +4004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4055,7 +4078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4129,7 +4152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -4203,7 +4226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -4277,7 +4300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4351,7 +4374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -4425,7 +4448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4499,7 +4522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4573,7 +4596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4647,7 +4670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4721,7 +4744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4795,7 +4818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4869,7 +4892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -4943,7 +4966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5017,7 +5040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -5041,7 +5064,7 @@
         <v>407184277.60000002</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5062,7 +5085,7 @@
         <v>156718643.09999999</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -5086,7 +5109,7 @@
         <v>208870588.5</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5106,7 +5129,7 @@
         <v>161493810.30000001</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5134,7 +5157,7 @@
         <v>12321097322</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -5162,7 +5185,7 @@
         <v>205351.62203333335</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -5182,7 +5205,7 @@
         <v>34.722214597999709</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5194,7 +5217,7 @@
         <v>1.5544167172999996</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>

--- a/spark/experiments/results-sql-g2.1.csv/g2.1-1t-no-cache.xlsx
+++ b/spark/experiments/results-sql-g2.1.csv/g2.1-1t-no-cache.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c130d1b636f27d/Documents/heterogenous-scaling-in-k8s/spark/experiments/results-sql-g2.1.csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddya\OneDrive\Documents\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.1.csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_D1B943E229C02AC12E93DC6D656E129430748923" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5F23FF9F-725C-48F0-8D03-09ECD3D340F4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_D1B943E229C02AC12E93DC6D656E129430748923" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E15BBC8-0F8A-493B-8766-DD012B884A60}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="2700" windowWidth="24000" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="part-00000-b8823a90-5962-455f-8" sheetId="1" r:id="rId1"/>
@@ -1987,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:K51"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
